--- a/訓練測試檔名表.xlsx
+++ b/訓練測試檔名表.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="挑變數後" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>CSV名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,7 +451,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,4 +596,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/訓練測試檔名表.xlsx
+++ b/訓練測試檔名表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>CSV名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>TCHCData/VISIT_COV_hos_V2Test.csv</t>
+  </si>
+  <si>
+    <t>TCHCData/CASE_COV_select_Train.csv</t>
+  </si>
+  <si>
+    <t>TCHCData/CASE_COV_select_Test.csv</t>
+  </si>
+  <si>
+    <t>TCHCData/VISIT_COV_select_V12Train.csv</t>
+  </si>
+  <si>
+    <t>TCHCData/VISIT_COV_select_V3Test.csv</t>
+  </si>
+  <si>
+    <t>TCHCData/VISIT_COV_select_V1Train.csv</t>
+  </si>
+  <si>
+    <t>TCHCData/VISIT_COV_select_V2Test.csv</t>
   </si>
 </sst>
 </file>
@@ -450,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -602,13 +620,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -638,7 +657,9 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -648,7 +669,9 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -688,7 +711,9 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -698,7 +723,9 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
@@ -708,7 +735,9 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
@@ -718,7 +747,9 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
